--- a/img/pinout.xlsx
+++ b/img/pinout.xlsx
@@ -767,6 +767,252 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc69d71ab35e1737cd0b316d4d62e72">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abcc0dc3dc1e21ee8c18ea26c13c5939" ns2:_="" ns3:_="">
+    <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
+    <xsd:import namespace="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b567201e-986a-4eb1-9fe2-dd918b324176" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbf37928-e6da-4ab6-9bfa-8061018408c7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ec3b2ebf-c727-441c-b77f-aa5988207d30}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bbf37928-e6da-4ab6-9bfa-8061018408c7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26DE09A-9B4A-4BD9-9840-08A2652082EA}"/>
 </file>
@@ -777,4 +1023,12 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBB05AD-3EE5-4905-B578-892368F17052}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E823F5C8-C834-48BD-92F3-D1545EB1679E}"/>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE6895B-1A29-49D5-951B-C7FBA51734E2}"/>
 </file>
--- a/img/pinout.xlsx
+++ b/img/pinout.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasklab.sharepoint.com/sites/LaskaKit/Sdilene dokumenty/GitHub/Projects/1.Board/ESPink-42/img/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_6A7EBCE8E55166527E6772C0892BD4703881FCD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7C9A04-7F1F-9D43-9E3C-897374842ABB}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2560" yWindow="1260" windowWidth="22480" windowHeight="17720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,83 +27,80 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO23 VSPI_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO27 SD_CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO22 I2C_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO13 HSPI_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO21 I2C_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO12 HSPI_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO19 VSPI_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO14 HSPI_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO18 VSPI_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO17 DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO16 RST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR_VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR_VP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3V3</t>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>IO23 VSPI_MOSI</t>
+  </si>
+  <si>
+    <t>IO27 SD_CS</t>
+  </si>
+  <si>
+    <t>IO22 I2C_SCL</t>
+  </si>
+  <si>
+    <t>IO13 HSPI_MOSI</t>
+  </si>
+  <si>
+    <t>IO21 I2C_SDA</t>
+  </si>
+  <si>
+    <t>IO12 HSPI_MISO</t>
+  </si>
+  <si>
+    <t>IO19 VSPI_MISO</t>
+  </si>
+  <si>
+    <t>IO14 HSPI_SCK</t>
+  </si>
+  <si>
+    <t>IO18 VSPI_SCK</t>
+  </si>
+  <si>
+    <t>IO26</t>
+  </si>
+  <si>
+    <t>IO17 DC</t>
+  </si>
+  <si>
+    <t>IO35</t>
+  </si>
+  <si>
+    <t>IO16 RST</t>
+  </si>
+  <si>
+    <t>IO34</t>
+  </si>
+  <si>
+    <t>IO0</t>
+  </si>
+  <si>
+    <t>SENSOR_VN</t>
+  </si>
+  <si>
+    <t>IO2</t>
+  </si>
+  <si>
+    <t>SENSOR_VP</t>
+  </si>
+  <si>
+    <t>3V3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -107,25 +109,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -133,7 +117,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -168,107 +152,95 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704985</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>412753</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="-481320" y="2035800"/>
-          <a:ext cx="5757480" cy="1855080"/>
+          <a:off x="-995095" y="3021279"/>
+          <a:ext cx="5489178" cy="2089018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -283,24 +255,316 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.35"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -308,7 +572,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -316,7 +580,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -328,7 +592,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -340,7 +604,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -352,7 +616,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -364,7 +628,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -376,7 +640,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -388,7 +652,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -400,7 +664,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -412,7 +676,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -424,7 +688,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -436,7 +700,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -448,7 +712,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -460,7 +724,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -472,7 +736,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -480,7 +744,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -488,29 +752,33 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:7" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc69d71ab35e1737cd0b316d4d62e72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abcc0dc3dc1e21ee8c18ea26c13c5939" ns2:_="" ns3:_="">
     <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
@@ -747,288 +1015,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bbf37928-e6da-4ab6-9bfa-8061018408c7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b567201e-986a-4eb1-9fe2-dd918b324176">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc69d71ab35e1737cd0b316d4d62e72">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abcc0dc3dc1e21ee8c18ea26c13c5939" ns2:_="" ns3:_="">
-    <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
-    <xsd:import namespace="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b567201e-986a-4eb1-9fe2-dd918b324176" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbf37928-e6da-4ab6-9bfa-8061018408c7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ec3b2ebf-c727-441c-b77f-aa5988207d30}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bbf37928-e6da-4ab6-9bfa-8061018408c7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26DE09A-9B4A-4BD9-9840-08A2652082EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE6895B-1A29-49D5-951B-C7FBA51734E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2B2F8B-8535-4595-BB99-270D6CF412F0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDBB05AD-3EE5-4905-B578-892368F17052}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E823F5C8-C834-48BD-92F3-D1545EB1679E}"/>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE6895B-1A29-49D5-951B-C7FBA51734E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E823F5C8-C834-48BD-92F3-D1545EB1679E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
+    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>